--- a/Projects/CCKH/Data/Template_New.xlsx
+++ b/Projects/CCKH/Data/Template_New.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,12 +32,16 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$T$32</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$T$32</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs!$A$1:$T$32</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$T$32</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$T$32</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">AVAILABILITY!$B$5:$CH$19</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$18</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$19</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$18</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$19</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$18</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">VISIBILITY!$B$5:$F$5</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">COOLER!$B$5:$S$5</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">COOLER!$B$5:$S$5</definedName>
@@ -45,6 +49,8 @@
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">COOLER!$B$5:$S$5</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">COOLER!$B$5:$S$5</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">COOLER!$B$5:$S$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">COOLER!$B$5:$S$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">COOLER!$B$5:$S$5</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -56,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="231">
   <si>
     <t xml:space="preserve">Store Type</t>
   </si>
@@ -657,7 +663,7 @@
     <t xml:space="preserve">KH-BBQ/Soup/Beer Gdn_Gold</t>
   </si>
   <si>
-    <t xml:space="preserve">KH-Canteen-Edu/Fact_Gold</t>
+    <t xml:space="preserve">KH-Canteen-Edu/Fact._Gold</t>
   </si>
   <si>
     <t xml:space="preserve">KH-Food Stalls_Gold</t>
@@ -819,7 +825,7 @@
     <t xml:space="preserve">KH-BBQ/Soup/Beer Gdn_Bronze</t>
   </si>
   <si>
-    <t xml:space="preserve">KH-Canteen-Edu/Fact_Bronze</t>
+    <t xml:space="preserve">KH-Canteen-Edu/Fact._Bronze</t>
   </si>
   <si>
     <t xml:space="preserve">KH-Food Stalls_Bronze</t>
@@ -950,9 +956,6 @@
   </si>
   <si>
     <t xml:space="preserve">Weight Per Store Types (N/A - do not run KPI)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH-Canteen-Edu/Fact._Gold</t>
   </si>
 </sst>
 </file>
@@ -1673,29 +1676,29 @@
   </sheetPr>
   <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="G1" colorId="64" zoomScale="90" zoomScaleNormal="86" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O23" activeCellId="0" sqref="O23"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="86" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D45" activeCellId="0" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.9919028340081"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.246963562753"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.8137651821862"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.3846153846154"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="77.6599190283401"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="53.2388663967611"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="79.0526315789474"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="54.0931174089069"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="41.8825910931174"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="36.8502024291498"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="42.5263157894737"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="37.4898785425101"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="22.4939271255061"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="75.6275303643725"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="77.0202429149798"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="29.9919028340081"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.10526315789474"/>
@@ -3182,19 +3185,19 @@
   </sheetPr>
   <dimension ref="A1:CH19"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="AE1" colorId="64" zoomScale="90" zoomScaleNormal="70" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="V1" colorId="64" zoomScale="90" zoomScaleNormal="70" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="BE5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="AE1" activeCellId="0" sqref="AE1"/>
-      <selection pane="bottomLeft" activeCell="AI26" activeCellId="0" sqref="AI26"/>
+      <selection pane="topLeft" activeCell="V1" activeCellId="0" sqref="V1"/>
+      <selection pane="bottomLeft" activeCell="Z5" activeCellId="0" sqref="Z5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="24" width="65.7692307692308"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.5627530364373"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="86" min="5" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="24" width="66.9473684210526"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.2024291497976"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="86" min="5" style="0" width="21.9595141700405"/>
     <col collapsed="false" hidden="false" max="1025" min="87" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -7330,14 +7333,14 @@
   </sheetPr>
   <dimension ref="B1:CF8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="85" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="AS1" colorId="64" zoomScale="90" zoomScaleNormal="85" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AY5" activeCellId="0" sqref="AY5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="24" width="57.8461538461538"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="24" width="58.8097165991903"/>
     <col collapsed="false" hidden="false" max="84" min="3" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="85" style="0" width="8.57085020242915"/>
   </cols>
@@ -7567,7 +7570,7 @@
         <v>132</v>
       </c>
       <c r="M5" s="30" t="s">
-        <v>231</v>
+        <v>133</v>
       </c>
       <c r="N5" s="30" t="s">
         <v>134</v>
@@ -8564,16 +8567,16 @@
   </sheetPr>
   <dimension ref="B1:CG13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="55" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="BL1" colorId="64" zoomScale="90" zoomScaleNormal="55" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BP5" activeCellId="0" sqref="BP5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="24" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="46" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="85" min="4" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="24" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="46" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="85" min="4" style="0" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="1025" min="86" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>

--- a/Projects/CCKH/Data/Template_New.xlsx
+++ b/Projects/CCKH/Data/Template_New.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,7 +14,7 @@
     <sheet name="COOLER" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">AVAILABILITY!$B$5:$CH$19</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">AVAILABILITY!$B$5:$CH$18</definedName>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">COOLER!$B$5:$S$5</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$T$32</definedName>
     <definedName function="false" hidden="false" name="Apples" vbProcedure="false">#REF!</definedName>
@@ -37,17 +37,19 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$T$32</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$T$32</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$T$32</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">AVAILABILITY!$B$5:$CH$18</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$19</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$18</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$19</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$18</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$19</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$18</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$19</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$T$32</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">AVAILABILITY!$B$5:$CH$19</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$19</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$19</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$19</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$19</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$18</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$18</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">VISIBILITY!$B$5:$F$5</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">COOLER!$B$5:$S$5</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">COOLER!$B$5:$S$5</definedName>
@@ -60,6 +62,7 @@
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">COOLER!$B$5:$S$5</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">COOLER!$B$5:$S$5</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">COOLER!$B$5:$S$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">COOLER!$B$5:$S$5</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -481,7 +484,7 @@
     <t xml:space="preserve">Min. Cooler SOVI</t>
   </si>
   <si>
-    <t xml:space="preserve">KO Cooler, Cold</t>
+    <t xml:space="preserve">KO Cooler,Cold</t>
   </si>
   <si>
     <t xml:space="preserve">Empty,Irrelevant</t>
@@ -502,7 +505,7 @@
     <t xml:space="preserve">Warm</t>
   </si>
   <si>
-    <t xml:space="preserve">KH-Tradi. Grocery_Gold, KH-Mini Wholesaler_Gold, KH-At Work/Offices_Gold, KH-BBQ/Soup/Beer Gdn_Gold, KH-Café Shop_Gold, KH-Canteen-Edu/Fact._Gold, KH-Cash &amp; Carry_Gold, KH-Cinema_Gold, KH-CVS_Gold, KH-Drinking Stalls_Gold, KH-Entertainment_Gold, KH-Fitness Center_Gold, KH-Food Court_Gold, KH-Food Stalls_Gold, KH-GH./Mini-Hotel_Gold, KH-Hotel(4Stars Up)_Gold, KH-Hypermarket_Gold, KH-Internet/E-Game_Gold, KH-KA Pharmacy _Gold, KH-KTV/Night Club_Gold, KH-Massage/Spa_Gold, KH-Mobile Premix_Gold, KH-Petrol Mart_Gold, KH-QSR_Gold, KH-Restaurants_Gold, KH-Sport Club_Gold, KH-Supermarket_Gold, KH-Tradi. Pharmacy_Gold, KH-Tradi. Grocery_Silver, KH-At Work/Offices_Silver, KH-BBQ/Soup/Beer Gdn_Silver, KH-Café Shop_Silver, KH-Canteen-Edu/Fact._Silver, KH-Cash &amp; Carry_Silver, KH-Cinema_Silver, KH-CVS_Silver, KH-Drinking Stalls_Silver, KH-Entertainment_Silver, KH-Fitness Center_Silver, KH-Food Court_Silver, KH-Food Stalls_Silver, KH-GH./Mini-Hotel_Silver, KH-Hotel(4Stars Up)_Silver, KH-Hypermarket_Silver, KH-Internet/E-Game_Silver, KH-KA Pharmacy _Silver, KH-KTV/Night Club_Silver, KH-Massage/Spa_Silver, KH-Mobile Premix_Silver, KH-Petrol Mart_Silver, KH-QSR_Silver, KH-Restaurants_Silver, KH-Sport Club_Silver, KH-Supermarket_Silver, KH-Tradi. Pharmacy_Silver, KH-Tradi. Grocery_Bronze, KH-At Work/Offices_Bronze, KH-BBQ/Soup/Beer Gdn_Bronze, KH-Café Shop_Bronze, KH-Canteen-Edu/Fact._Bronze, KH-Cash &amp; Carry_Bronze, KH-Cinema_Bronze, KH-CVS_Bronze, KH-Drinking Stalls_Bronze, KH-Entertainment_Bronze, KH-Fitness Center_Bronze, KH-Food Court_Bronze, KH-Food Stalls_Bronze, KH-GH./Mini-Hotel_Bronze, KH-Hotel(4Stars Up)_Bronze, KH-Hypermarket_Bronze, KH-Internet/E-Game_Bronze, KH-KA Pharmacy _Bronze, KH-KTV/Night Club_Bronze, KH-Massage/Spa_Bronze, KH-Mobile Premix_Bronze, KH-Petrol Mart_Bronze, KH-QSR_Bronze, KH-Restaurants_Bronze, KH-Sport Club_Bronze, KH-Supermarket_Bronze, KH-Tradi. Pharmacy_Bronze</t>
+    <t xml:space="preserve">KH-Tradi. Grocery_Gold,KH-Mini Wholesaler_Gold,KH-At Work/Offices_Gold,KH-BBQ/Soup/Beer Gdn_Gold,KH-Café Shop_Gold,KH-Canteen-Edu/Fact._Gold,KH-Cash &amp; Carry_Gold,KH-Cinema_Gold,KH-CVS_Gold,KH-Drinking Stalls_Gold,KH-Entertainment_Gold,KH-Fitness Center_Gold,KH-Food Court_Gold,KH-Food Stalls_Gold,KH-GH./Mini-Hotel_Gold,KH-Hotel(4Stars Up)_Gold,KH-Hypermarket_Gold,KH-Internet/E-Game_Gold,KH-KA Pharmacy _Gold,KH-KTV/Night Club_Gold,KH-Massage/Spa_Gold,KH-Mobile Premix_Gold,KH-Petrol Mart_Gold,KH-QSR_Gold,KH-Restaurants_Gold,KH-Sport Club_Gold,KH-Supermarket_Gold,KH-Tradi. Pharmacy_Gold,KH-Tradi. Grocery_Silver,KH-At Work/Offices_Silver,KH-BBQ/Soup/Beer Gdn_Silver,KH-Café Shop_Silver,KH-Canteen-Edu/Fact._Silver,KH-Cash &amp; Carry_Silver,KH-Cinema_Silver,KH-CVS_Silver,KH-Drinking Stalls_Silver,KH-Entertainment_Silver,KH-Fitness Center_Silver,KH-Food Court_Silver,KH-Food Stalls_Silver,KH-GH./Mini-Hotel_Silver,KH-Hotel(4Stars Up)_Silver,KH-Hypermarket_Silver,KH-Internet/E-Game_Silver,KH-KA Pharmacy _Silver,KH-KTV/Night Club_Silver,KH-Massage/Spa_Silver,KH-Mobile Premix_Silver,KH-Petrol Mart_Silver,KH-QSR_Silver,KH-Restaurants_Silver,KH-Sport Club_Silver,KH-Supermarket_Silver,KH-Tradi. Pharmacy_Silver,KH-Tradi. Grocery_Bronze,KH-At Work/Offices_Bronze,KH-BBQ/Soup/Beer Gdn_Bronze,KH-Café Shop_Bronze,KH-Canteen-Edu/Fact._Bronze,KH-Cash &amp; Carry_Bronze,KH-Cinema_Bronze,KH-CVS_Bronze,KH-Drinking Stalls_Bronze,KH-Entertainment_Bronze,KH-Fitness Center_Bronze,KH-Food Court_Bronze,KH-Food Stalls_Bronze,KH-GH./Mini-Hotel_Bronze,KH-Hotel(4Stars Up)_Bronze,KH-Hypermarket_Bronze,KH-Internet/E-Game_Bronze,KH-KA Pharmacy _Bronze,KH-KTV/Night Club_Bronze,KH-Massage/Spa_Bronze,KH-Mobile Premix_Bronze,KH-Petrol Mart_Bronze,KH-QSR_Bronze,KH-Restaurants_Bronze,KH-Sport Club_Bronze,KH-Supermarket_Bronze,KH-Tradi. Pharmacy_Bronze</t>
   </si>
   <si>
     <t xml:space="preserve">Cooler Club</t>
@@ -987,8 +990,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="General"/>
     <numFmt numFmtId="166" formatCode="0%"/>
     <numFmt numFmtId="167" formatCode="0.00"/>
     <numFmt numFmtId="168" formatCode="@"/>
@@ -1278,7 +1281,7 @@
     </border>
   </borders>
   <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1296,96 +1299,96 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1393,23 +1396,23 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1425,11 +1428,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1437,39 +1440,39 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="14" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1481,11 +1484,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1518,83 +1521,167 @@
   <dxfs count="8">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <color rgb="FF000000"/>
+        <u val="none"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="00FFFFFF"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <color rgb="FF000000"/>
+        <u val="none"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="00FFFFFF"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <name val="Calibri"/>
+        <charset val="177"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <color rgb="FF000000"/>
+        <u val="none"/>
       </font>
+      <numFmt numFmtId="165" formatCode="General"/>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="00FFFFFF"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <border diagonalUp="false" diagonalDown="false">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <diagonal/>
+      </border>
+      <protection locked="true" hidden="false"/>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <color rgb="FF000000"/>
+        <u val="none"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="00FFFFFF"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <color rgb="FF000000"/>
+        <u val="none"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="00FFFFFF"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <color rgb="FF000000"/>
+        <u val="none"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="00FFFFFF"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <color rgb="FF000000"/>
+        <u val="none"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="00FFFFFF"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
   </dxfs>
   <colors>
@@ -1679,29 +1766,29 @@
   </sheetPr>
   <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="86" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="86" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A28" activeCellId="3" sqref="A26 A30:A31 H24 A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.17004048583"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.246963562753"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.3117408906883"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.4574898785425"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="80.9838056680162"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="55.5951417004049"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6356275303644"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.6720647773279"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="81.7327935222672"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="56.0242914979757"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="43.7044534412956"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="38.2429149797571"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="44.0242914979757"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="38.5627530364372"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="22.9230769230769"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="79.0526315789474"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="79.6963562753036"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="30.8502024291498"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.10526315789474"/>
@@ -3198,21 +3285,19 @@
   </sheetPr>
   <dimension ref="B1:CH19"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="70" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="70" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane xSplit="0" ySplit="4" topLeftCell="E5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E28" activeCellId="0" sqref="E28"/>
+      <selection pane="bottomLeft" activeCell="E28" activeCellId="3" sqref="A26 A30:A31 H24 E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="24" width="31.3846153846154"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.8825910931174"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.2307692307692"/>
-    <col collapsed="false" hidden="false" max="86" min="5" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="24" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.2024291497976"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="86" min="5" style="0" width="21.7449392712551"/>
     <col collapsed="false" hidden="false" max="1025" min="87" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -7268,7 +7353,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B5:CH19"/>
+  <autoFilter ref="B5:CH18"/>
   <mergeCells count="8">
     <mergeCell ref="B3:D4"/>
     <mergeCell ref="E3:CH3"/>
@@ -7352,13 +7437,13 @@
   <dimension ref="B1:CF8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="AS1" colorId="64" zoomScale="90" zoomScaleNormal="85" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AY5" activeCellId="0" sqref="AY5"/>
+      <selection pane="topLeft" activeCell="AY5" activeCellId="3" sqref="A26 A30:A31 H24 AY5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="24" width="60.3076923076923"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="24" width="60.8421052631579"/>
     <col collapsed="false" hidden="false" max="84" min="3" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="85" style="0" width="8.57085020242915"/>
   </cols>
@@ -8586,15 +8671,15 @@
   <dimension ref="B1:CG13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="BL1" colorId="64" zoomScale="90" zoomScaleNormal="55" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BP5" activeCellId="0" sqref="BP5"/>
+      <selection pane="topLeft" activeCell="BP5" activeCellId="3" sqref="A26 A30:A31 H24 BP5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="24" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="44" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="85" min="4" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="24" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="44" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="85" min="4" style="0" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="1025" min="86" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>

--- a/Projects/CCKH/Data/Template_New.xlsx
+++ b/Projects/CCKH/Data/Template_New.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,7 +14,7 @@
     <sheet name="COOLER" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">AVAILABILITY!$B$5:$CH$18</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">AVAILABILITY!$B$5:$CH$19</definedName>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">COOLER!$B$5:$S$5</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$T$32</definedName>
     <definedName function="false" hidden="false" name="Apples" vbProcedure="false">#REF!</definedName>
@@ -38,18 +38,20 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$T$32</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$T$32</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$T$32</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">AVAILABILITY!$B$5:$CH$19</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$18</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$19</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$18</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$19</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$18</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$19</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$18</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$19</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$T$32</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">AVAILABILITY!$B$5:$CH$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$19</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$19</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$19</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$19</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$19</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$18</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">AVAILABILITY!$B$5:$CH$18</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">VISIBILITY!$B$5:$F$5</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">COOLER!$B$5:$S$5</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">COOLER!$B$5:$S$5</definedName>
@@ -63,6 +65,7 @@
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">COOLER!$B$5:$S$5</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">COOLER!$B$5:$S$5</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">COOLER!$B$5:$S$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">COOLER!$B$5:$S$5</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -937,7 +940,7 @@
     <t xml:space="preserve">Fanta Orange 330ml, Fanta orange 330ml_C X24PACK</t>
   </si>
   <si>
-    <t xml:space="preserve">8847100560094,8847100567376_C</t>
+    <t xml:space="preserve">8847100567376,8847100567376_C</t>
   </si>
   <si>
     <t xml:space="preserve">Fanta Fruit Punch 330ml, Fanta Fruit Punch 330ml Sleek Can, Fanta Fruit Punch 330ml_C X24PACK</t>
@@ -996,7 +999,7 @@
     <numFmt numFmtId="167" formatCode="0.00"/>
     <numFmt numFmtId="168" formatCode="@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1104,6 +1107,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1134,7 +1143,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1156,13 +1165,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFE699"/>
-        <bgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFEEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -1311,7 +1326,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1460,6 +1475,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="168" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1476,7 +1495,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="3" borderId="12" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="17" fillId="3" borderId="12" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1492,11 +1511,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="18" fillId="4" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="19" fillId="4" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1504,7 +1523,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="19" fillId="5" borderId="6" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="20" fillId="5" borderId="6" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1535,10 +1554,9 @@
       <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
       <fill>
         <patternFill>
-          <bgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -1547,7 +1565,6 @@
         <family val="2"/>
         <color rgb="FF000000"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -1565,10 +1582,9 @@
       <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
       <fill>
         <patternFill>
-          <bgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -1586,10 +1602,9 @@
       <numFmt numFmtId="165" formatCode="General"/>
       <fill>
         <patternFill>
-          <bgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <border diagonalUp="false" diagonalDown="false">
         <left/>
         <right/>
@@ -1597,7 +1612,6 @@
         <bottom/>
         <diagonal/>
       </border>
-      <protection locked="true" hidden="false"/>
     </dxf>
     <dxf>
       <font>
@@ -1615,10 +1629,9 @@
       <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
       <fill>
         <patternFill>
-          <bgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -1636,10 +1649,9 @@
       <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
       <fill>
         <patternFill>
-          <bgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -1657,10 +1669,9 @@
       <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
       <fill>
         <patternFill>
-          <bgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -1678,10 +1689,9 @@
       <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
       <fill>
         <patternFill>
-          <bgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
   </dxfs>
   <colors>
@@ -1694,7 +1704,7 @@
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF9C0006"/>
+      <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
@@ -1725,7 +1735,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFC7CE"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -1766,29 +1776,29 @@
   </sheetPr>
   <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="86" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A28" activeCellId="3" sqref="A26 A30:A31 H24 A28"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="86" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.4939271255061"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.246963562753"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.6356275303644"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.6720647773279"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="81.7327935222672"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="56.0242914979757"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.9554655870445"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.8866396761134"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="82.4817813765182"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="56.4534412955466"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="44.0242914979757"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="38.5627530364372"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="44.3481781376518"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="38.8825910931174"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="23.0323886639676"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="79.6963562753036"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="80.3400809716599"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="31.17004048583"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.10526315789474"/>
@@ -3285,19 +3295,19 @@
   </sheetPr>
   <dimension ref="B1:CH19"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="70" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="70" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="E5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E28" activeCellId="3" sqref="A26 A30:A31 H24 E28"/>
+      <selection pane="bottomLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="24" width="31.5991902834008"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.2024291497976"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="86" min="5" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="24" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.6315789473684"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="86" min="5" style="0" width="21.9595141700405"/>
     <col collapsed="false" hidden="false" max="1025" min="87" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -5046,7 +5056,7 @@
       <c r="C11" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="37" t="s">
         <v>220</v>
       </c>
       <c r="E11" s="32" t="n">
@@ -5814,7 +5824,7 @@
       <c r="B14" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="38" t="s">
         <v>43</v>
       </c>
       <c r="D14" s="31" t="s">
@@ -6006,61 +6016,61 @@
       <c r="BN14" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="BO14" s="38" t="n">
+      <c r="BO14" s="39" t="n">
         <v>1</v>
       </c>
       <c r="BP14" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="BQ14" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR14" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS14" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT14" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU14" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV14" s="38" t="n">
+      <c r="BQ14" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR14" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS14" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT14" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU14" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV14" s="39" t="n">
         <v>1</v>
       </c>
       <c r="BW14" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="BX14" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY14" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ14" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA14" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB14" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC14" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD14" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE14" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF14" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG14" s="38" t="n">
+      <c r="BX14" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY14" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ14" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA14" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB14" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC14" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD14" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE14" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF14" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG14" s="39" t="n">
         <v>1</v>
       </c>
       <c r="CH14" s="32" t="s">
@@ -6071,7 +6081,7 @@
       <c r="B15" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="38" t="s">
         <v>45</v>
       </c>
       <c r="D15" s="31" t="s">
@@ -6263,68 +6273,68 @@
       <c r="BN15" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="BO15" s="38" t="n">
+      <c r="BO15" s="39" t="n">
         <v>1</v>
       </c>
       <c r="BP15" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="BQ15" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR15" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS15" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT15" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU15" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV15" s="38" t="n">
+      <c r="BQ15" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR15" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS15" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT15" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU15" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV15" s="39" t="n">
         <v>1</v>
       </c>
       <c r="BW15" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="BX15" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY15" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ15" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA15" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB15" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC15" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD15" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE15" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF15" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG15" s="38" t="n">
+      <c r="BX15" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY15" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ15" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA15" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB15" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC15" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD15" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE15" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF15" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG15" s="39" t="n">
         <v>1</v>
       </c>
       <c r="CH15" s="32" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="16" s="39" customFormat="true" ht="28.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" s="40" customFormat="true" ht="28.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="8" t="s">
         <v>227</v>
       </c>
@@ -7099,7 +7109,7 @@
       <c r="B19" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="38" t="s">
         <v>53</v>
       </c>
       <c r="D19" s="31" t="s">
@@ -7353,7 +7363,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B5:CH18"/>
+  <autoFilter ref="B5:CH19"/>
   <mergeCells count="8">
     <mergeCell ref="B3:D4"/>
     <mergeCell ref="E3:CH3"/>
@@ -7437,13 +7447,13 @@
   <dimension ref="B1:CF8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="AS1" colorId="64" zoomScale="90" zoomScaleNormal="85" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AY5" activeCellId="3" sqref="A26 A30:A31 H24 AY5"/>
+      <selection pane="topLeft" activeCell="AY5" activeCellId="0" sqref="AY5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="24" width="60.8421052631579"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="24" width="61.3805668016194"/>
     <col collapsed="false" hidden="false" max="84" min="3" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="85" style="0" width="8.57085020242915"/>
   </cols>
@@ -7455,94 +7465,94 @@
       <c r="B2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="40"/>
-      <c r="C3" s="41" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="42" t="s">
         <v>235</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="41"/>
-      <c r="AD3" s="41"/>
-      <c r="AE3" s="41"/>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="41"/>
-      <c r="AH3" s="41"/>
-      <c r="AI3" s="41"/>
-      <c r="AJ3" s="41"/>
-      <c r="AK3" s="41"/>
-      <c r="AL3" s="41"/>
-      <c r="AM3" s="41"/>
-      <c r="AN3" s="41"/>
-      <c r="AO3" s="41"/>
-      <c r="AP3" s="41"/>
-      <c r="AQ3" s="41"/>
-      <c r="AR3" s="41"/>
-      <c r="AS3" s="41"/>
-      <c r="AT3" s="41"/>
-      <c r="AU3" s="41"/>
-      <c r="AV3" s="41"/>
-      <c r="AW3" s="41"/>
-      <c r="AX3" s="41"/>
-      <c r="AY3" s="41"/>
-      <c r="AZ3" s="41"/>
-      <c r="BA3" s="41"/>
-      <c r="BB3" s="41"/>
-      <c r="BC3" s="41"/>
-      <c r="BD3" s="41"/>
-      <c r="BE3" s="41"/>
-      <c r="BF3" s="41"/>
-      <c r="BG3" s="41"/>
-      <c r="BH3" s="41"/>
-      <c r="BI3" s="41"/>
-      <c r="BJ3" s="41"/>
-      <c r="BK3" s="41"/>
-      <c r="BL3" s="41"/>
-      <c r="BM3" s="41"/>
-      <c r="BN3" s="41"/>
-      <c r="BO3" s="41"/>
-      <c r="BP3" s="41"/>
-      <c r="BQ3" s="41"/>
-      <c r="BR3" s="41"/>
-      <c r="BS3" s="41"/>
-      <c r="BT3" s="41"/>
-      <c r="BU3" s="41"/>
-      <c r="BV3" s="41"/>
-      <c r="BW3" s="41"/>
-      <c r="BX3" s="41"/>
-      <c r="BY3" s="41"/>
-      <c r="BZ3" s="41"/>
-      <c r="CA3" s="41"/>
-      <c r="CB3" s="41"/>
-      <c r="CC3" s="41"/>
-      <c r="CD3" s="41"/>
-      <c r="CE3" s="41"/>
-      <c r="CF3" s="41"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="42"/>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="42"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="42"/>
+      <c r="AN3" s="42"/>
+      <c r="AO3" s="42"/>
+      <c r="AP3" s="42"/>
+      <c r="AQ3" s="42"/>
+      <c r="AR3" s="42"/>
+      <c r="AS3" s="42"/>
+      <c r="AT3" s="42"/>
+      <c r="AU3" s="42"/>
+      <c r="AV3" s="42"/>
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="42"/>
+      <c r="AY3" s="42"/>
+      <c r="AZ3" s="42"/>
+      <c r="BA3" s="42"/>
+      <c r="BB3" s="42"/>
+      <c r="BC3" s="42"/>
+      <c r="BD3" s="42"/>
+      <c r="BE3" s="42"/>
+      <c r="BF3" s="42"/>
+      <c r="BG3" s="42"/>
+      <c r="BH3" s="42"/>
+      <c r="BI3" s="42"/>
+      <c r="BJ3" s="42"/>
+      <c r="BK3" s="42"/>
+      <c r="BL3" s="42"/>
+      <c r="BM3" s="42"/>
+      <c r="BN3" s="42"/>
+      <c r="BO3" s="42"/>
+      <c r="BP3" s="42"/>
+      <c r="BQ3" s="42"/>
+      <c r="BR3" s="42"/>
+      <c r="BS3" s="42"/>
+      <c r="BT3" s="42"/>
+      <c r="BU3" s="42"/>
+      <c r="BV3" s="42"/>
+      <c r="BW3" s="42"/>
+      <c r="BX3" s="42"/>
+      <c r="BY3" s="42"/>
+      <c r="BZ3" s="42"/>
+      <c r="CA3" s="42"/>
+      <c r="CB3" s="42"/>
+      <c r="CC3" s="42"/>
+      <c r="CD3" s="42"/>
+      <c r="CE3" s="42"/>
+      <c r="CF3" s="42"/>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="40"/>
+      <c r="B4" s="41"/>
       <c r="C4" s="27" t="s">
         <v>124</v>
       </c>
@@ -7639,7 +7649,7 @@
       <c r="CF4" s="27"/>
     </row>
     <row r="5" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="43" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="30" t="s">
@@ -7893,250 +7903,250 @@
       <c r="B6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="43" t="n">
+      <c r="C6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="44" t="n">
         <v>0.5</v>
       </c>
-      <c r="J6" s="43" t="n">
+      <c r="J6" s="44" t="n">
         <v>0.5</v>
       </c>
-      <c r="K6" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="L6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="N6" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O6" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P6" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q6" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R6" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="T6" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U6" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V6" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W6" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X6" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Y6" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Z6" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AA6" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AB6" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AC6" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AD6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ6" s="43" t="n">
+      <c r="K6" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N6" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O6" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P6" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q6" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R6" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U6" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V6" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W6" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X6" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Y6" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Z6" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA6" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AB6" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AC6" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="44" t="n">
         <v>0.5</v>
       </c>
-      <c r="AK6" s="43" t="n">
+      <c r="AK6" s="44" t="n">
         <v>0.5</v>
       </c>
-      <c r="AL6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF6" s="43" t="n">
+      <c r="AL6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF6" s="44" t="n">
         <v>0.5</v>
       </c>
-      <c r="BG6" s="43" t="n">
+      <c r="BG6" s="44" t="n">
         <v>0.5</v>
       </c>
-      <c r="BH6" s="43" t="n">
+      <c r="BH6" s="44" t="n">
         <v>0.5</v>
       </c>
-      <c r="BI6" s="43" t="n">
+      <c r="BI6" s="44" t="n">
         <v>0.5</v>
       </c>
-      <c r="BJ6" s="43" t="n">
+      <c r="BJ6" s="44" t="n">
         <v>0.5</v>
       </c>
-      <c r="BK6" s="43" t="n">
+      <c r="BK6" s="44" t="n">
         <v>0.5</v>
       </c>
-      <c r="BL6" s="43" t="n">
+      <c r="BL6" s="44" t="n">
         <v>0.5</v>
       </c>
-      <c r="BM6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE6" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF6" s="43" t="n">
+      <c r="BM6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE6" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF6" s="44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8144,250 +8154,250 @@
       <c r="B7" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="43" t="n">
+      <c r="C7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="44" t="n">
         <v>0.5</v>
       </c>
-      <c r="J7" s="43" t="n">
+      <c r="J7" s="44" t="n">
         <v>0.5</v>
       </c>
-      <c r="K7" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="L7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="N7" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O7" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P7" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q7" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R7" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="T7" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U7" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V7" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W7" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X7" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Y7" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Z7" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AA7" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AB7" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AC7" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AD7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ7" s="43" t="n">
+      <c r="K7" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N7" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O7" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P7" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q7" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R7" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U7" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V7" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W7" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X7" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Y7" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Z7" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA7" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AB7" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AC7" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="44" t="n">
         <v>0.5</v>
       </c>
-      <c r="AK7" s="43" t="n">
+      <c r="AK7" s="44" t="n">
         <v>0.5</v>
       </c>
-      <c r="AL7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF7" s="43" t="n">
+      <c r="AL7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF7" s="44" t="n">
         <v>0.5</v>
       </c>
-      <c r="BG7" s="43" t="n">
+      <c r="BG7" s="44" t="n">
         <v>0.5</v>
       </c>
-      <c r="BH7" s="43" t="n">
+      <c r="BH7" s="44" t="n">
         <v>0.5</v>
       </c>
-      <c r="BI7" s="43" t="n">
+      <c r="BI7" s="44" t="n">
         <v>0.5</v>
       </c>
-      <c r="BJ7" s="43" t="n">
+      <c r="BJ7" s="44" t="n">
         <v>0.5</v>
       </c>
-      <c r="BK7" s="43" t="n">
+      <c r="BK7" s="44" t="n">
         <v>0.5</v>
       </c>
-      <c r="BL7" s="43" t="n">
+      <c r="BL7" s="44" t="n">
         <v>0.5</v>
       </c>
-      <c r="BM7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE7" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF7" s="43" t="n">
+      <c r="BM7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF7" s="44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8395,250 +8405,250 @@
       <c r="B8" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="43" t="n">
+      <c r="C8" s="44" t="n">
         <v>2</v>
       </c>
-      <c r="D8" s="43" t="n">
+      <c r="D8" s="44" t="n">
         <v>2</v>
       </c>
-      <c r="E8" s="43" t="n">
+      <c r="E8" s="44" t="n">
         <v>2</v>
       </c>
-      <c r="F8" s="43" t="n">
+      <c r="F8" s="44" t="n">
         <v>2</v>
       </c>
-      <c r="G8" s="43" t="n">
+      <c r="G8" s="44" t="n">
         <v>2</v>
       </c>
-      <c r="H8" s="43" t="n">
+      <c r="H8" s="44" t="n">
         <v>2</v>
       </c>
-      <c r="I8" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="43" t="n">
+      <c r="I8" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="44" t="n">
         <v>2</v>
       </c>
-      <c r="L8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M8" s="43" t="n">
+      <c r="L8" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M8" s="44" t="n">
         <v>2</v>
       </c>
-      <c r="N8" s="43" t="n">
+      <c r="N8" s="44" t="n">
         <v>2</v>
       </c>
-      <c r="O8" s="43" t="n">
+      <c r="O8" s="44" t="n">
         <v>2</v>
       </c>
-      <c r="P8" s="43" t="n">
+      <c r="P8" s="44" t="n">
         <v>2</v>
       </c>
-      <c r="Q8" s="43" t="n">
+      <c r="Q8" s="44" t="n">
         <v>2</v>
       </c>
-      <c r="R8" s="43" t="n">
+      <c r="R8" s="44" t="n">
         <v>2</v>
       </c>
-      <c r="S8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T8" s="43" t="n">
+      <c r="S8" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T8" s="44" t="n">
         <v>2</v>
       </c>
-      <c r="U8" s="43" t="n">
+      <c r="U8" s="44" t="n">
         <v>2</v>
       </c>
-      <c r="V8" s="43" t="n">
+      <c r="V8" s="44" t="n">
         <v>2</v>
       </c>
-      <c r="W8" s="43" t="n">
+      <c r="W8" s="44" t="n">
         <v>2</v>
       </c>
-      <c r="X8" s="43" t="n">
+      <c r="X8" s="44" t="n">
         <v>2</v>
       </c>
-      <c r="Y8" s="43" t="n">
+      <c r="Y8" s="44" t="n">
         <v>2</v>
       </c>
-      <c r="Z8" s="43" t="n">
+      <c r="Z8" s="44" t="n">
         <v>2</v>
       </c>
-      <c r="AA8" s="43" t="n">
+      <c r="AA8" s="44" t="n">
         <v>2</v>
       </c>
-      <c r="AB8" s="43" t="n">
+      <c r="AB8" s="44" t="n">
         <v>2</v>
       </c>
-      <c r="AC8" s="43" t="n">
+      <c r="AC8" s="44" t="n">
         <v>2</v>
       </c>
-      <c r="AD8" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AF8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AG8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AH8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AI8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AJ8" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK8" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL8" s="43" t="n">
+      <c r="AD8" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF8" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AG8" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AH8" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI8" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AJ8" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="44" t="n">
         <v>2</v>
       </c>
-      <c r="AM8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AN8" s="43" t="n">
+      <c r="AM8" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN8" s="44" t="n">
         <v>2</v>
       </c>
-      <c r="AO8" s="43" t="n">
+      <c r="AO8" s="44" t="n">
         <v>2</v>
       </c>
-      <c r="AP8" s="43" t="n">
+      <c r="AP8" s="44" t="n">
         <v>2</v>
       </c>
-      <c r="AQ8" s="43" t="n">
+      <c r="AQ8" s="44" t="n">
         <v>2</v>
       </c>
-      <c r="AR8" s="43" t="n">
+      <c r="AR8" s="44" t="n">
         <v>2</v>
       </c>
-      <c r="AS8" s="43" t="n">
+      <c r="AS8" s="44" t="n">
         <v>2</v>
       </c>
-      <c r="AT8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AU8" s="43" t="n">
+      <c r="AT8" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU8" s="44" t="n">
         <v>2</v>
       </c>
-      <c r="AV8" s="43" t="n">
+      <c r="AV8" s="44" t="n">
         <v>2</v>
       </c>
-      <c r="AW8" s="43" t="n">
+      <c r="AW8" s="44" t="n">
         <v>2</v>
       </c>
-      <c r="AX8" s="43" t="n">
+      <c r="AX8" s="44" t="n">
         <v>2</v>
       </c>
-      <c r="AY8" s="43" t="n">
+      <c r="AY8" s="44" t="n">
         <v>2</v>
       </c>
-      <c r="AZ8" s="43" t="n">
+      <c r="AZ8" s="44" t="n">
         <v>2</v>
       </c>
-      <c r="BA8" s="43" t="n">
+      <c r="BA8" s="44" t="n">
         <v>2</v>
       </c>
-      <c r="BB8" s="43" t="n">
+      <c r="BB8" s="44" t="n">
         <v>2</v>
       </c>
-      <c r="BC8" s="43" t="n">
+      <c r="BC8" s="44" t="n">
         <v>2</v>
       </c>
-      <c r="BD8" s="43" t="n">
+      <c r="BD8" s="44" t="n">
         <v>2</v>
       </c>
-      <c r="BE8" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BG8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BH8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BI8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BJ8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BK8" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL8" s="43" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BN8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BO8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BP8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BQ8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BR8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BS8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BT8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BU8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BV8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BW8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BX8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BY8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BZ8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="CA8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="CB8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="CC8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="CD8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="CE8" s="43" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="CF8" s="43" t="n">
+      <c r="BE8" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF8" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BG8" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BH8" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BI8" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ8" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BK8" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL8" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM8" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BN8" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO8" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BP8" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BQ8" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BR8" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BS8" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BT8" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BU8" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BV8" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BW8" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BX8" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BY8" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BZ8" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="CA8" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="CB8" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="CC8" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="CD8" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="CE8" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="CF8" s="44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8671,15 +8681,15 @@
   <dimension ref="B1:CG13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="BL1" colorId="64" zoomScale="90" zoomScaleNormal="55" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BP5" activeCellId="3" sqref="A26 A30:A31 H24 BP5"/>
+      <selection pane="topLeft" activeCell="BP5" activeCellId="0" sqref="BP5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="24" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="44" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="85" min="4" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="24" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="45" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="85" min="4" style="0" width="20.8866396761134"/>
     <col collapsed="false" hidden="false" max="1025" min="86" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -8692,96 +8702,96 @@
       <c r="C2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="41" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="42" t="s">
         <v>235</v>
       </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="41"/>
-      <c r="AD3" s="41"/>
-      <c r="AE3" s="41"/>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="41"/>
-      <c r="AH3" s="41"/>
-      <c r="AI3" s="41"/>
-      <c r="AJ3" s="41"/>
-      <c r="AK3" s="41"/>
-      <c r="AL3" s="41"/>
-      <c r="AM3" s="41"/>
-      <c r="AN3" s="41"/>
-      <c r="AO3" s="41"/>
-      <c r="AP3" s="41"/>
-      <c r="AQ3" s="41"/>
-      <c r="AR3" s="41"/>
-      <c r="AS3" s="41"/>
-      <c r="AT3" s="41"/>
-      <c r="AU3" s="41"/>
-      <c r="AV3" s="41"/>
-      <c r="AW3" s="41"/>
-      <c r="AX3" s="41"/>
-      <c r="AY3" s="41"/>
-      <c r="AZ3" s="41"/>
-      <c r="BA3" s="41"/>
-      <c r="BB3" s="41"/>
-      <c r="BC3" s="41"/>
-      <c r="BD3" s="41"/>
-      <c r="BE3" s="41"/>
-      <c r="BF3" s="41"/>
-      <c r="BG3" s="41"/>
-      <c r="BH3" s="41"/>
-      <c r="BI3" s="41"/>
-      <c r="BJ3" s="41"/>
-      <c r="BK3" s="41"/>
-      <c r="BL3" s="41"/>
-      <c r="BM3" s="41"/>
-      <c r="BN3" s="41"/>
-      <c r="BO3" s="41"/>
-      <c r="BP3" s="41"/>
-      <c r="BQ3" s="41"/>
-      <c r="BR3" s="41"/>
-      <c r="BS3" s="41"/>
-      <c r="BT3" s="41"/>
-      <c r="BU3" s="41"/>
-      <c r="BV3" s="41"/>
-      <c r="BW3" s="41"/>
-      <c r="BX3" s="41"/>
-      <c r="BY3" s="41"/>
-      <c r="BZ3" s="41"/>
-      <c r="CA3" s="41"/>
-      <c r="CB3" s="41"/>
-      <c r="CC3" s="41"/>
-      <c r="CD3" s="41"/>
-      <c r="CE3" s="41"/>
-      <c r="CF3" s="41"/>
-      <c r="CG3" s="41"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="42"/>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="42"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="42"/>
+      <c r="AN3" s="42"/>
+      <c r="AO3" s="42"/>
+      <c r="AP3" s="42"/>
+      <c r="AQ3" s="42"/>
+      <c r="AR3" s="42"/>
+      <c r="AS3" s="42"/>
+      <c r="AT3" s="42"/>
+      <c r="AU3" s="42"/>
+      <c r="AV3" s="42"/>
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="42"/>
+      <c r="AY3" s="42"/>
+      <c r="AZ3" s="42"/>
+      <c r="BA3" s="42"/>
+      <c r="BB3" s="42"/>
+      <c r="BC3" s="42"/>
+      <c r="BD3" s="42"/>
+      <c r="BE3" s="42"/>
+      <c r="BF3" s="42"/>
+      <c r="BG3" s="42"/>
+      <c r="BH3" s="42"/>
+      <c r="BI3" s="42"/>
+      <c r="BJ3" s="42"/>
+      <c r="BK3" s="42"/>
+      <c r="BL3" s="42"/>
+      <c r="BM3" s="42"/>
+      <c r="BN3" s="42"/>
+      <c r="BO3" s="42"/>
+      <c r="BP3" s="42"/>
+      <c r="BQ3" s="42"/>
+      <c r="BR3" s="42"/>
+      <c r="BS3" s="42"/>
+      <c r="BT3" s="42"/>
+      <c r="BU3" s="42"/>
+      <c r="BV3" s="42"/>
+      <c r="BW3" s="42"/>
+      <c r="BX3" s="42"/>
+      <c r="BY3" s="42"/>
+      <c r="BZ3" s="42"/>
+      <c r="CA3" s="42"/>
+      <c r="CB3" s="42"/>
+      <c r="CC3" s="42"/>
+      <c r="CD3" s="42"/>
+      <c r="CE3" s="42"/>
+      <c r="CF3" s="42"/>
+      <c r="CG3" s="42"/>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
       <c r="D4" s="27" t="s">
         <v>124</v>
       </c>
@@ -8878,10 +8888,10 @@
       <c r="CG4" s="27"/>
     </row>
     <row r="5" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="47" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="30" t="s">
@@ -9138,250 +9148,250 @@
       <c r="C6" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="47" t="n">
+      <c r="D6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="K6" s="47" t="n">
+      <c r="K6" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="L6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="R6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="S6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="T6" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="U6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="V6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="W6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="X6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="47" t="n">
+      <c r="L6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="AG6" s="47" t="n">
+      <c r="AG6" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="AH6" s="47" t="n">
+      <c r="AH6" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="AI6" s="47" t="n">
+      <c r="AI6" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="AJ6" s="47" t="n">
+      <c r="AJ6" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="AK6" s="47" t="n">
+      <c r="AK6" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="AL6" s="47" t="n">
+      <c r="AL6" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="AM6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN6" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU6" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG6" s="47" t="n">
+      <c r="AM6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU6" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG6" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="BH6" s="47" t="n">
+      <c r="BH6" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="BI6" s="47" t="n">
+      <c r="BI6" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="BJ6" s="47" t="n">
+      <c r="BJ6" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="BK6" s="47" t="n">
+      <c r="BK6" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="BL6" s="47" t="n">
+      <c r="BL6" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="BM6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN6" s="47" t="n">
+      <c r="BM6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN6" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="BO6" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV6" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG6" s="47" t="n">
+      <c r="BO6" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV6" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF6" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG6" s="48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9392,250 +9402,250 @@
       <c r="C7" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="47" t="n">
+      <c r="D7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="K7" s="47" t="n">
+      <c r="K7" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="L7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="S7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="T7" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="U7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="V7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="W7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="X7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF7" s="47" t="n">
+      <c r="L7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="W7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="AG7" s="47" t="n">
+      <c r="AG7" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="AH7" s="47" t="n">
+      <c r="AH7" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="AI7" s="47" t="n">
+      <c r="AI7" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="AJ7" s="47" t="n">
+      <c r="AJ7" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="AK7" s="47" t="n">
+      <c r="AK7" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="AL7" s="47" t="n">
+      <c r="AL7" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="AM7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN7" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU7" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG7" s="47" t="n">
+      <c r="AM7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU7" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG7" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="BH7" s="47" t="n">
+      <c r="BH7" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="BI7" s="47" t="n">
+      <c r="BI7" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="BJ7" s="47" t="n">
+      <c r="BJ7" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="BK7" s="47" t="n">
+      <c r="BK7" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="BL7" s="47" t="n">
+      <c r="BL7" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="BM7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN7" s="47" t="n">
+      <c r="BM7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN7" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="BO7" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV7" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG7" s="47" t="n">
+      <c r="BO7" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV7" s="49" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF7" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG7" s="48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9646,250 +9656,250 @@
       <c r="C8" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E8" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F8" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="G8" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H8" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I8" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" s="47" t="n">
+      <c r="D8" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E8" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F8" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G8" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H8" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I8" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J8" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="M8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" s="47" t="n">
+      <c r="M8" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="O8" s="47" t="n">
+      <c r="O8" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="P8" s="47" t="n">
+      <c r="P8" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="Q8" s="47" t="n">
+      <c r="Q8" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="R8" s="47" t="n">
+      <c r="R8" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="S8" s="47" t="n">
+      <c r="S8" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="T8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="U8" s="47" t="n">
+      <c r="T8" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="U8" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="V8" s="47" t="n">
+      <c r="V8" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="W8" s="47" t="n">
+      <c r="W8" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="X8" s="47" t="n">
+      <c r="X8" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="Y8" s="47" t="n">
+      <c r="Y8" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="Z8" s="47" t="n">
+      <c r="Z8" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="AA8" s="47" t="n">
+      <c r="AA8" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="AB8" s="47" t="n">
+      <c r="AB8" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="AC8" s="47" t="n">
+      <c r="AC8" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="AD8" s="47" t="n">
+      <c r="AD8" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="AE8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF8" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AG8" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AH8" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AI8" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AJ8" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AK8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM8" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AN8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO8" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AP8" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AQ8" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AR8" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AS8" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AT8" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AU8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV8" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AW8" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AX8" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AY8" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AZ8" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BA8" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BB8" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BC8" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BD8" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BE8" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BF8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG8" s="47" t="n">
+      <c r="AE8" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AG8" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AH8" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI8" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AJ8" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK8" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN8" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP8" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ8" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR8" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS8" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT8" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU8" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV8" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW8" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AX8" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY8" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AZ8" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BA8" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB8" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC8" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD8" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE8" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BF8" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG8" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH8" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI8" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ8" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK8" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL8" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM8" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN8" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO8" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP8" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ8" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR8" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS8" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT8" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU8" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV8" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW8" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX8" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY8" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ8" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA8" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB8" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC8" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD8" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE8" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF8" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG8" s="48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9900,250 +9910,250 @@
       <c r="C9" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG9" s="48" t="n">
+      <c r="D9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF9" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG9" s="49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10154,250 +10164,250 @@
       <c r="C10" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG10" s="48" t="n">
+      <c r="D10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG10" s="49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10408,250 +10418,250 @@
       <c r="C11" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E11" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F11" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="G11" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H11" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I11" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J11" s="47" t="n">
+      <c r="D11" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E11" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F11" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G11" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H11" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I11" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J11" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="K11" s="47" t="n">
+      <c r="K11" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="L11" s="47" t="n">
+      <c r="L11" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="M11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" s="47" t="n">
+      <c r="M11" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="O11" s="47" t="n">
+      <c r="O11" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="P11" s="47" t="n">
+      <c r="P11" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="Q11" s="47" t="n">
+      <c r="Q11" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="R11" s="47" t="n">
+      <c r="R11" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="S11" s="47" t="n">
+      <c r="S11" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="T11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="U11" s="47" t="n">
+      <c r="T11" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="V11" s="47" t="n">
+      <c r="V11" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="W11" s="47" t="n">
+      <c r="W11" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="X11" s="47" t="n">
+      <c r="X11" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="Y11" s="47" t="n">
+      <c r="Y11" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="Z11" s="47" t="n">
+      <c r="Z11" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="AA11" s="47" t="n">
+      <c r="AA11" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="AB11" s="47" t="n">
+      <c r="AB11" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="AC11" s="47" t="n">
+      <c r="AC11" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="AD11" s="47" t="n">
+      <c r="AD11" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="AE11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF11" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AG11" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AH11" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AI11" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AJ11" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AK11" s="47" t="n">
+      <c r="AE11" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AG11" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AH11" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI11" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AJ11" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK11" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="AL11" s="47" t="n">
+      <c r="AL11" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="AM11" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AN11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO11" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AP11" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AQ11" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AR11" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AS11" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AT11" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AU11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV11" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AW11" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AX11" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AY11" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AZ11" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BA11" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BB11" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BC11" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BD11" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BE11" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BF11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL11" s="47" t="n">
+      <c r="AM11" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN11" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO11" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP11" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ11" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR11" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS11" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT11" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU11" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV11" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW11" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AX11" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY11" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AZ11" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BA11" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB11" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC11" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD11" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE11" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BF11" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG11" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH11" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI11" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ11" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK11" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL11" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="BM11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN11" s="47" t="n">
+      <c r="BM11" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN11" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="BO11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG11" s="47" t="n">
+      <c r="BO11" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP11" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ11" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR11" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS11" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT11" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU11" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV11" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW11" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX11" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY11" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ11" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA11" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB11" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC11" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD11" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE11" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF11" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG11" s="48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10662,250 +10672,250 @@
       <c r="C12" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" s="47" t="n">
+      <c r="D12" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="K12" s="47" t="n">
+      <c r="K12" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="L12" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O12" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P12" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q12" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R12" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S12" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="U12" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V12" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W12" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X12" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Y12" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Z12" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AA12" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AB12" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AC12" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AD12" s="47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AE12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK12" s="47" t="n">
+      <c r="L12" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M12" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O12" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P12" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q12" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R12" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S12" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T12" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="U12" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V12" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W12" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X12" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Y12" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Z12" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA12" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AB12" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AC12" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD12" s="48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AE12" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="AL12" s="47" t="n">
+      <c r="AL12" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="AM12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL12" s="47" t="n">
+      <c r="AM12" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO12" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP12" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ12" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR12" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS12" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT12" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU12" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV12" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW12" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX12" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY12" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ12" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA12" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB12" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC12" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD12" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE12" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF12" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG12" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH12" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI12" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ12" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK12" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL12" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="BM12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN12" s="47" t="n">
+      <c r="BM12" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN12" s="48" t="n">
         <v>0.5</v>
       </c>
-      <c r="BO12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG12" s="47" t="n">
+      <c r="BO12" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP12" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ12" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR12" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS12" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT12" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU12" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV12" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW12" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX12" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY12" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ12" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA12" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB12" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC12" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD12" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE12" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF12" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG12" s="48" t="n">
         <v>1</v>
       </c>
     </row>
